--- a/medicine/Pharmacie/Méthylone/Méthylone.xlsx
+++ b/medicine/Pharmacie/Méthylone/Méthylone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thylone</t>
+          <t>Méthylone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La méthylone (MDMC, βk-MDMA) est un psychotrope psychostimulant qualifié aussi d'entactogène ou empathogène, généralement considéré comme un nouveau produit de synthèse (NPS).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thylone</t>
+          <t>Méthylone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chimiquement, il s'agit d'une cétone. On parle parfois de bêta-kéto-amphétamine, pour préciser qu'elle possède la structure générale d'une amphétamine, avec une fonction cétone sur le carbone en bêta par rapport à l'atome d'azote.
 Elle correspond à la version béta-cétonique de la MDMA (ecstasy), c'est pourquoi on l'appelle parfois βk-MDMA.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9thylone</t>
+          <t>Méthylone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La méthylone provoque une libération massive de sérotonine et de dopamine dans le cerveau tout en inhibant la recapture de ces neurotransmetteurs. En comparaison avec la MDMA, l'affinité pour les transporteurs de la sérotonine est trois fois moins importante avec la méthylone, alors que son affinité pour la noradrénaline et la dopamine est identique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La méthylone provoque une libération massive de sérotonine et de dopamine dans le cerveau tout en inhibant la recapture de ces neurotransmetteurs. En comparaison avec la MDMA, l'affinité pour les transporteurs de la sérotonine est trois fois moins importante avec la méthylone, alors que son affinité pour la noradrénaline et la dopamine est identique.
 La méthylone est donc moins puissante, et de plus courte durée d'action, que son homologue non bêta-cétonique.
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9thylone</t>
+          <t>Méthylone</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,48 @@
           <t>Effets et conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthylone n'étant pas un produit très répandu, peu de recherches ont été effectuées. On ne connaît alors que peu sa toxicité et sa pharmacologie.
-Effets recherchés
-désinhibition;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Méthylone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thylone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Effets et conséquences</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Effets recherchés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">désinhibition;
 sensations d'énergie et de forme (meilleures performances physiques) ;
 coupe-faim (anorexigène) ;
 sensations de bien-être, d'euphorie ;
@@ -592,33 +645,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M%C3%A9thylone</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Méthylone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9thylone</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Législation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la méthylone est classée comme stupéfiant[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la méthylone est classée comme stupéfiant.
 En 2005, certains smartshops néerlandais en vendaient sous le nom d'Explosion. Il s'agissait d'une solution de méthylone conditionnée dans de petits flacons, vendu comme un désodorisant pour l'air factice[réf. nécessaire].
 </t>
         </is>
